--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.700699999999994</v>
+        <v>-6.705899999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.88009999999998</v>
+        <v>-20.80129999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-23.0468</v>
+        <v>-22.9955</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -542,15 +542,15 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.79149999999999</v>
+        <v>16.90599999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.791</v>
+        <v>-21.7933</v>
       </c>
       <c r="B7" t="n">
-        <v>5.472700000000001</v>
+        <v>5.428000000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.2817</v>
+        <v>-22.35800000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.38770000000001</v>
+        <v>16.60280000000001</v>
       </c>
     </row>
     <row r="9">
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.906300000000001</v>
+        <v>5.767400000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.910299999999999</v>
+        <v>5.8828</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.2152</v>
+        <v>-11.3523</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.929500000000002</v>
+        <v>-7.8854</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,10 +655,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.16239999999999</v>
+        <v>-13.11039999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.621400000000001</v>
+        <v>-8.849299999999998</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.56269999999999</v>
+        <v>-14.62649999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.198399999999996</v>
+        <v>5.021199999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.74959999999999</v>
+        <v>-21.69989999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.9107</v>
+        <v>-12.0272</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.45830000000001</v>
+        <v>18.3165</v>
       </c>
     </row>
     <row r="19">
@@ -757,38 +757,38 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.8556</v>
+        <v>-13.6552</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.57589999999998</v>
+        <v>16.69799999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.21519999999999</v>
+        <v>-22.23260000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.810299999999996</v>
+        <v>5.383399999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.74559999999999</v>
+        <v>-12.08769999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.57760000000001</v>
+        <v>16.6295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.22630000000001</v>
+        <v>-22.1976</v>
       </c>
       <c r="B21" t="n">
-        <v>5.227799999999999</v>
+        <v>5.501999999999994</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.53239999999999</v>
+        <v>17.45550000000001</v>
       </c>
     </row>
     <row r="22">
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.224399999999996</v>
+        <v>9.147699999999995</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.33870000000001</v>
+        <v>-12.62750000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.0205</v>
+        <v>-8.320500000000004</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.196199999999996</v>
+        <v>9.193699999999993</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.17789999999999</v>
+        <v>16.05069999999999</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4115</v>
+        <v>16.38089999999999</v>
       </c>
     </row>
     <row r="25">
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.154300000000001</v>
+        <v>-8.811199999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8995</v>
+        <v>-21.99849999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.70970000000001</v>
+        <v>-21.63550000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>4.8264</v>
+        <v>4.869500000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.805599999999996</v>
+        <v>-7.054399999999996</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.72460000000001</v>
+        <v>-21.80150000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.4206</v>
+        <v>-21.4435</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.8902</v>
+        <v>9.161700000000005</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.976900000000001</v>
+        <v>-7.748600000000002</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.75990000000001</v>
+        <v>15.8145</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.7299</v>
+        <v>-13.1025</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.40440000000001</v>
+        <v>16.52460000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.62039999999999</v>
+        <v>15.22569999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.37189999999999</v>
+        <v>-19.84249999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.4493</v>
+        <v>16.31819999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.4144</v>
+        <v>10.3873</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>4.498399999999994</v>
+        <v>4.239999999999992</v>
       </c>
       <c r="C43" t="n">
-        <v>-14.44239999999999</v>
+        <v>-14.56379999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.615299999999992</v>
+        <v>-8.371099999999993</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.118399999999999</v>
+        <v>5.0406</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.380100000000001</v>
+        <v>5.422799999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.02259999999999</v>
+        <v>-22.11579999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>5.785900000000002</v>
+        <v>5.228300000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>-11.95649999999999</v>
+        <v>-12.38849999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.55249999999999</v>
+        <v>16.59399999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.2127</v>
+        <v>16.30789999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.180700000000003</v>
+        <v>-7.977500000000007</v>
       </c>
       <c r="E48" t="n">
-        <v>16.88119999999998</v>
+        <v>16.80299999999998</v>
       </c>
     </row>
     <row r="49">
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.965499999999996</v>
+        <v>4.819299999999996</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.98969999999998</v>
+        <v>-14.00919999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.24300000000001</v>
+        <v>-22.159</v>
       </c>
       <c r="B51" t="n">
-        <v>5.220199999999998</v>
+        <v>5.104799999999996</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.38690000000001</v>
+        <v>-22.27570000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.95940000000001</v>
+        <v>-23.0542</v>
       </c>
       <c r="B57" t="n">
-        <v>5.008199999999995</v>
+        <v>4.659299999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.78509999999999</v>
+        <v>16.56319999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.4367</v>
+        <v>16.6057</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.13449999999999</v>
+        <v>-22.21289999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,10 +1457,10 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.776000000000003</v>
+        <v>-8.911200000000003</v>
       </c>
       <c r="E60" t="n">
-        <v>15.77940000000001</v>
+        <v>15.771</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.34690000000001</v>
+        <v>-22.3511</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.954199999999998</v>
+        <v>5.782999999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.47519999999999</v>
+        <v>-21.4523</v>
       </c>
       <c r="B66" t="n">
-        <v>4.759999999999995</v>
+        <v>4.723099999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>4.848799999999998</v>
+        <v>4.945899999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.680599999999996</v>
+        <v>-6.571299999999995</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.725999999999994</v>
+        <v>-6.591199999999995</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.183699999999998</v>
+        <v>-7.148099999999992</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-18.78539999999999</v>
+        <v>-19.11139999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1678,15 +1678,15 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.014600000000003</v>
+        <v>-8.060099999999998</v>
       </c>
       <c r="E73" t="n">
-        <v>16.56589999999999</v>
+        <v>16.8204</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-22.02349999999998</v>
+        <v>-21.87789999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1726,18 +1726,18 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.1203</v>
+        <v>-12.2754</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.43990000000001</v>
+        <v>16.4742</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.26159999999999</v>
+        <v>-20.34189999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.969700000000009</v>
+        <v>-7.805000000000006</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.553800000000006</v>
+        <v>9.98520000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.804800000000003</v>
+        <v>5.660000000000004</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.3999</v>
+        <v>16.6517</v>
       </c>
     </row>
     <row r="86">
@@ -1910,13 +1910,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.223299999999995</v>
+        <v>4.984099999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.567599999999999</v>
+        <v>-8.380499999999989</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.55640000000002</v>
+        <v>-21.59230000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>4.740099999999996</v>
+        <v>4.611499999999996</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.266099999999999</v>
+        <v>-6.349500000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.08640000000001</v>
+        <v>-10.8723</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.369699999999998</v>
+        <v>6.545299999999997</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.48510000000001</v>
+        <v>-11.57510000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.8817</v>
+        <v>16.2871</v>
       </c>
     </row>
     <row r="99">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.026</v>
+        <v>-12.1266</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.22529999999999</v>
+        <v>-22.2517</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.049800000000003</v>
+        <v>-7.985500000000004</v>
       </c>
       <c r="E101" t="n">
-        <v>16.63010000000001</v>
+        <v>16.803</v>
       </c>
     </row>
     <row r="102">
